--- a/data/trans_orig/PCS12_SP_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R2-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>122526</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105884</v>
+        <v>106501</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>138954</v>
+        <v>139336</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4487967168071418</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.387839755192997</v>
+        <v>0.3901010947117797</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5089716395797955</v>
+        <v>0.5103688068465102</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>139</v>
@@ -765,19 +765,19 @@
         <v>148082</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>131584</v>
+        <v>131522</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>163641</v>
+        <v>165833</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5677174595007617</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5044647162452359</v>
+        <v>0.5042296882565708</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6273653978060582</v>
+        <v>0.6357688305575331</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>263</v>
@@ -786,19 +786,19 @@
         <v>270608</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>246908</v>
+        <v>245106</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>295112</v>
+        <v>292888</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5069013790222724</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4625063426160998</v>
+        <v>0.4591297558166063</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5528020853141259</v>
+        <v>0.5486351454525157</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>150484</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>134056</v>
+        <v>133674</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>167126</v>
+        <v>166509</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5512032831928582</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4910283604202045</v>
+        <v>0.4896311931534897</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.612160244807003</v>
+        <v>0.6098989052882203</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>106</v>
@@ -836,19 +836,19 @@
         <v>112756</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>97197</v>
+        <v>95005</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129254</v>
+        <v>129316</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4322825404992383</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3726346021939419</v>
+        <v>0.3642311694424669</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4955352837547641</v>
+        <v>0.4957703117434292</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>253</v>
@@ -857,19 +857,19 @@
         <v>263240</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>238736</v>
+        <v>240960</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>286940</v>
+        <v>288742</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4930986209777277</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4471979146858741</v>
+        <v>0.4513648545474846</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5374936573839003</v>
+        <v>0.5408702441833937</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>239402</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>216717</v>
+        <v>216374</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>261767</v>
+        <v>263083</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4855284769008774</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4395208234973185</v>
+        <v>0.4388264840815934</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5308873078762013</v>
+        <v>0.5335560437139945</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>290</v>
@@ -982,19 +982,19 @@
         <v>296105</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>276032</v>
+        <v>275387</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>317289</v>
+        <v>317481</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5875689662694518</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.547738572378787</v>
+        <v>0.5464581820671146</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6296047925314191</v>
+        <v>0.6299862926720881</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>517</v>
@@ -1003,19 +1003,19 @@
         <v>535507</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>503491</v>
+        <v>504742</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>567237</v>
+        <v>566652</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5371051690864866</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5049939237248495</v>
+        <v>0.5062482725972897</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5689306083963142</v>
+        <v>0.5683432636004582</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>253673</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>231308</v>
+        <v>229992</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>276358</v>
+        <v>276701</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5144715230991226</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4691126921237987</v>
+        <v>0.4664439562860055</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5604791765026815</v>
+        <v>0.5611735159184066</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>209</v>
@@ -1053,19 +1053,19 @@
         <v>207844</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>186660</v>
+        <v>186468</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>227917</v>
+        <v>228562</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4124310337305482</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3703952074685811</v>
+        <v>0.370013707327912</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4522614276212132</v>
+        <v>0.4535418179328857</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>447</v>
@@ -1074,19 +1074,19 @@
         <v>461517</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>429787</v>
+        <v>430372</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>493533</v>
+        <v>492282</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4628948309135134</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4310693916036861</v>
+        <v>0.4316567363995419</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4950060762751508</v>
+        <v>0.4937517274027104</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>134607</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>116381</v>
+        <v>117982</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>153382</v>
+        <v>152964</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.422169325920194</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3650080447644692</v>
+        <v>0.3700279145818119</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4810521300703197</v>
+        <v>0.4797426712548264</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>230</v>
@@ -1199,19 +1199,19 @@
         <v>232914</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>213917</v>
+        <v>216411</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>247455</v>
+        <v>250039</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6944115265889508</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6377743131385922</v>
+        <v>0.6452094845947849</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7377654724718806</v>
+        <v>0.7454678553536285</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>363</v>
@@ -1220,19 +1220,19 @@
         <v>367521</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>342608</v>
+        <v>344354</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>390532</v>
+        <v>392951</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5617370707781214</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5236583800283399</v>
+        <v>0.526327603036606</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.596908361242918</v>
+        <v>0.6006062044278293</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>184239</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>165464</v>
+        <v>165882</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>202465</v>
+        <v>200864</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.577830674079806</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5189478699296803</v>
+        <v>0.5202573287451737</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6349919552355308</v>
+        <v>0.6299720854181881</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>105</v>
@@ -1270,19 +1270,19 @@
         <v>102498</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>87957</v>
+        <v>85373</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>121495</v>
+        <v>119001</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3055884734110492</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2622345275281193</v>
+        <v>0.2545321446463719</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3622256868614077</v>
+        <v>0.3547905154052152</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>282</v>
@@ -1291,19 +1291,19 @@
         <v>286737</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>263726</v>
+        <v>261307</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>311650</v>
+        <v>309904</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4382629292218786</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.403091638757082</v>
+        <v>0.3993937955721708</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.47634161997166</v>
+        <v>0.4736723969633941</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>147115</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>129935</v>
+        <v>127875</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>166865</v>
+        <v>165609</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4101668900887152</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3622688813432373</v>
+        <v>0.3565234974343318</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4652325241964416</v>
+        <v>0.4617301405376289</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>231</v>
@@ -1416,19 +1416,19 @@
         <v>224550</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>206945</v>
+        <v>206161</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>242674</v>
+        <v>242598</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6045132262427136</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5571171867293558</v>
+        <v>0.5550072690386822</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6533054203713476</v>
+        <v>0.6530995255053885</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>381</v>
@@ -1437,19 +1437,19 @@
         <v>371665</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>345802</v>
+        <v>347965</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>398546</v>
+        <v>396374</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5090416039814344</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4736185424014688</v>
+        <v>0.4765810920775798</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5458579115550067</v>
+        <v>0.5428836949317742</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>211556</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>191806</v>
+        <v>193062</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>228736</v>
+        <v>230796</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5898331099112849</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5347674758035585</v>
+        <v>0.5382698594623712</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6377311186567627</v>
+        <v>0.6434765025656686</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>153</v>
@@ -1487,19 +1487,19 @@
         <v>146906</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>128782</v>
+        <v>128858</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>164511</v>
+        <v>165295</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3954867737572863</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3466945796286526</v>
+        <v>0.3469004744946114</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4428828132706442</v>
+        <v>0.4449927309613178</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>365</v>
@@ -1508,19 +1508,19 @@
         <v>358462</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>331581</v>
+        <v>333753</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>384325</v>
+        <v>382162</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4909583960185656</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4541420884449932</v>
+        <v>0.4571163050682258</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5263814575985313</v>
+        <v>0.5234189079224203</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>68882</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55035</v>
+        <v>57473</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82643</v>
+        <v>82590</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.338806230638477</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.270698898679766</v>
+        <v>0.2826915351067106</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4064895563590822</v>
+        <v>0.4062308748617156</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -1633,19 +1633,19 @@
         <v>101583</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>86244</v>
+        <v>87190</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>115874</v>
+        <v>117178</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4891584116952057</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4152993429416794</v>
+        <v>0.4198519543729716</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5579758004015085</v>
+        <v>0.5642579891665577</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>171</v>
@@ -1654,19 +1654,19 @@
         <v>170465</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>151415</v>
+        <v>152978</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>190283</v>
+        <v>191769</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4147798476892744</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3684276016790771</v>
+        <v>0.3722305143783132</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4630033930774181</v>
+        <v>0.4666195457262807</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>134426</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>120665</v>
+        <v>120718</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>148273</v>
+        <v>145835</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.661193769361523</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5935104436409182</v>
+        <v>0.5937691251382844</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.729301101320234</v>
+        <v>0.7173084648932894</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>102</v>
@@ -1704,19 +1704,19 @@
         <v>106085</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>91794</v>
+        <v>90490</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>121424</v>
+        <v>120478</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5108415883047942</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4420241995984912</v>
+        <v>0.4357420108334427</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5847006570583204</v>
+        <v>0.5801480456270285</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>233</v>
@@ -1725,19 +1725,19 @@
         <v>240511</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>220693</v>
+        <v>219207</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>259561</v>
+        <v>257998</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5852201523107257</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5369966069225821</v>
+        <v>0.5333804542737195</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6315723983209228</v>
+        <v>0.6277694856216868</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>117581</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>101633</v>
+        <v>101187</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>134973</v>
+        <v>134285</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4341814425552336</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3752911527683801</v>
+        <v>0.3736440544686833</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4984042118129178</v>
+        <v>0.4958608860288429</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>183</v>
@@ -1850,19 +1850,19 @@
         <v>191015</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>175791</v>
+        <v>175204</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>204461</v>
+        <v>206569</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6867476811435395</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6320130426975566</v>
+        <v>0.6299026638820207</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7350921091978236</v>
+        <v>0.7426676567710979</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>302</v>
@@ -1871,19 +1871,19 @@
         <v>308596</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>284786</v>
+        <v>284410</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>330365</v>
+        <v>329890</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5621514644228596</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5187785525516008</v>
+        <v>0.5180930531678292</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6018077473837607</v>
+        <v>0.6009421891556505</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>153230</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>135838</v>
+        <v>136526</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>169178</v>
+        <v>169624</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5658185574447664</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5015957881870823</v>
+        <v>0.5041391139711571</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.62470884723162</v>
+        <v>0.6263559455313167</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>87</v>
@@ -1921,19 +1921,19 @@
         <v>87129</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>73683</v>
+        <v>71575</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>102353</v>
+        <v>102940</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3132523188564606</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2649078908021766</v>
+        <v>0.257332343228902</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3679869573024434</v>
+        <v>0.3700973361179794</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>234</v>
@@ -1942,19 +1942,19 @@
         <v>240359</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>218590</v>
+        <v>219065</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>264169</v>
+        <v>264545</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4378485355771404</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3981922526162394</v>
+        <v>0.3990578108443494</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4812214474483994</v>
+        <v>0.4819069468321707</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>280510</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>257733</v>
+        <v>256803</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>308203</v>
+        <v>304953</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4560939189431475</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4190594539264557</v>
+        <v>0.4175480265433077</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5011216673278273</v>
+        <v>0.4958364476712559</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>354</v>
@@ -2067,19 +2067,19 @@
         <v>365439</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>341991</v>
+        <v>340594</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>392324</v>
+        <v>389727</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.57259115569249</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5358515746496859</v>
+        <v>0.5336636029138292</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6147169912465884</v>
+        <v>0.6106474450878213</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>631</v>
@@ -2088,19 +2088,19 @@
         <v>645949</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>613694</v>
+        <v>611889</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>679392</v>
+        <v>685774</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5154204612997072</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4896836507657717</v>
+        <v>0.4882437005393335</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5421062202434727</v>
+        <v>0.5471978392135165</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>334517</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>306824</v>
+        <v>310074</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>357294</v>
+        <v>358224</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5439060810568526</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4988783326721727</v>
+        <v>0.5041635523287442</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5809405460735443</v>
+        <v>0.5824519734566922</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>267</v>
@@ -2138,19 +2138,19 @@
         <v>272780</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>245895</v>
+        <v>248492</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>296228</v>
+        <v>297625</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.42740884430751</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3852830087534116</v>
+        <v>0.3893525549121788</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4641484253503142</v>
+        <v>0.4663363970861708</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>588</v>
@@ -2159,19 +2159,19 @@
         <v>607297</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>573854</v>
+        <v>567472</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>639552</v>
+        <v>641357</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4845795387002929</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4578937797565278</v>
+        <v>0.4528021607864842</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5103163492342284</v>
+        <v>0.5117562994606666</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>284319</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>257538</v>
+        <v>258204</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>310127</v>
+        <v>309843</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3822543288018233</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3462491000866708</v>
+        <v>0.3471435231556363</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4169523059574112</v>
+        <v>0.4165708366570526</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>346</v>
@@ -2284,19 +2284,19 @@
         <v>368260</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>339652</v>
+        <v>342425</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>395591</v>
+        <v>399542</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4700121497478889</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4334998995654387</v>
+        <v>0.4370391115109544</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5048956880181534</v>
+        <v>0.509937721484516</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>630</v>
@@ -2305,19 +2305,19 @@
         <v>652579</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>610987</v>
+        <v>612337</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>689623</v>
+        <v>691074</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4272742633551116</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4000423380922317</v>
+        <v>0.4009261463011678</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4515293514236315</v>
+        <v>0.4524788987031508</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>459476</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>433668</v>
+        <v>433952</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>486257</v>
+        <v>485591</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6177456711981767</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5830476940425888</v>
+        <v>0.5834291633429478</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6537508999133292</v>
+        <v>0.6528564768443639</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>399</v>
@@ -2355,19 +2355,19 @@
         <v>415251</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>387920</v>
+        <v>383969</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>443859</v>
+        <v>441086</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5299878502521111</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4951043119818466</v>
+        <v>0.4900622785154842</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5665001004345613</v>
+        <v>0.5629608884890457</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>851</v>
@@ -2376,19 +2376,19 @@
         <v>874727</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>837683</v>
+        <v>836232</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>916319</v>
+        <v>914969</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5727257366448884</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5484706485763685</v>
+        <v>0.5475211012968492</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5999576619077683</v>
+        <v>0.5990738536988323</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>1394942</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1341965</v>
+        <v>1336796</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1458655</v>
+        <v>1449845</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4257358970184624</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4095674504047762</v>
+        <v>0.407989781229815</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4451812457700149</v>
+        <v>0.4424922896567671</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1869</v>
@@ -2501,19 +2501,19 @@
         <v>1927947</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1867012</v>
+        <v>1871572</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1984335</v>
+        <v>1987844</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5705339626011435</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5525015884179793</v>
+        <v>0.5538512447247268</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5872208854678156</v>
+        <v>0.5882591944745356</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3258</v>
@@ -2522,19 +2522,19 @@
         <v>3322889</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3239001</v>
+        <v>3243155</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3400042</v>
+        <v>3404198</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4992515672809898</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4866476978769131</v>
+        <v>0.4872718249871985</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5108434802487847</v>
+        <v>0.5114678552534737</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1881601</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1817888</v>
+        <v>1826698</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1934578</v>
+        <v>1939747</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5742641029815375</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5548187542299851</v>
+        <v>0.5575077103432329</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5904325495952237</v>
+        <v>0.592010218770185</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1428</v>
@@ -2572,19 +2572,19 @@
         <v>1451250</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1394862</v>
+        <v>1391353</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1512185</v>
+        <v>1507625</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4294660373988565</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4127791145321846</v>
+        <v>0.4117408055254648</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4474984115820209</v>
+        <v>0.4461487552752735</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3253</v>
@@ -2593,19 +2593,19 @@
         <v>3332852</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3255699</v>
+        <v>3251543</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3416740</v>
+        <v>3412586</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5007484327190102</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4891565197512151</v>
+        <v>0.4885321447465261</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5133523021230868</v>
+        <v>0.5127281750128015</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>149415</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>129763</v>
+        <v>131852</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>166294</v>
+        <v>168287</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5069414823158003</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4402654627315313</v>
+        <v>0.447352666636932</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5642110866065324</v>
+        <v>0.5709726727592974</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>142</v>
@@ -2962,19 +2962,19 @@
         <v>159778</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>141559</v>
+        <v>141878</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>177933</v>
+        <v>177578</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5562434454630972</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4928149329242631</v>
+        <v>0.4939275186383981</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6194483655818692</v>
+        <v>0.6182106082489073</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>284</v>
@@ -2983,19 +2983,19 @@
         <v>309193</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>283318</v>
+        <v>281322</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>334412</v>
+        <v>334182</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5312750825461451</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4868151282287411</v>
+        <v>0.4833860377769394</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5746072541081787</v>
+        <v>0.5742132825855063</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>145323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>128444</v>
+        <v>126451</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>164975</v>
+        <v>162886</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4930585176841997</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4357889133934676</v>
+        <v>0.4290273272407026</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5597345372684689</v>
+        <v>0.552647333363068</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>114</v>
@@ -3033,19 +3033,19 @@
         <v>127467</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>109312</v>
+        <v>109667</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>145686</v>
+        <v>145367</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4437565545369028</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3805516344181313</v>
+        <v>0.3817893917510928</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5071850670757369</v>
+        <v>0.5060724813616019</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>254</v>
@@ -3054,19 +3054,19 @@
         <v>272790</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>247571</v>
+        <v>247801</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>298665</v>
+        <v>300661</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4687249174538549</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4253927458918209</v>
+        <v>0.4257867174144936</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5131848717712588</v>
+        <v>0.5166139622230606</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>255536</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>232678</v>
+        <v>232699</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>276471</v>
+        <v>278464</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5054835618424852</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4602678802756437</v>
+        <v>0.4603088196650959</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5468964258035168</v>
+        <v>0.550839331354916</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>302</v>
@@ -3179,19 +3179,19 @@
         <v>334168</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>310930</v>
+        <v>310529</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>356250</v>
+        <v>357021</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.638010513392288</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5936446942305373</v>
+        <v>0.5928785066077208</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6801717783133205</v>
+        <v>0.6816430626687181</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>535</v>
@@ -3200,19 +3200,19 @@
         <v>589703</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>558023</v>
+        <v>558405</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>623827</v>
+        <v>623085</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5729211419804664</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5421422498232056</v>
+        <v>0.542514167396541</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6060737267471106</v>
+        <v>0.6053525179631141</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>249991</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>229056</v>
+        <v>227063</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>272849</v>
+        <v>272828</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4945164381575147</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4531035741964832</v>
+        <v>0.449160668645084</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5397321197243563</v>
+        <v>0.5396911803349039</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>178</v>
@@ -3250,19 +3250,19 @@
         <v>189597</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>167515</v>
+        <v>166744</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>212835</v>
+        <v>213236</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.361989486607712</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3198282216866795</v>
+        <v>0.3183569373312819</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4063553057694626</v>
+        <v>0.4071214933922796</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>417</v>
@@ -3271,19 +3271,19 @@
         <v>439589</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>405465</v>
+        <v>406207</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>471269</v>
+        <v>470887</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4270788580195336</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3939262732528892</v>
+        <v>0.3946474820368859</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4578577501767944</v>
+        <v>0.4574858326034588</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>137108</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>120296</v>
+        <v>118595</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156191</v>
+        <v>154247</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4231127967929997</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3712303070723728</v>
+        <v>0.3659826701556553</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4820011183888991</v>
+        <v>0.4760047935268598</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>165</v>
@@ -3396,19 +3396,19 @@
         <v>179219</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>160878</v>
+        <v>160497</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>198112</v>
+        <v>197005</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5255386620822889</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4717547710952735</v>
+        <v>0.4706379375538971</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5809385478045638</v>
+        <v>0.5776933210633828</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>298</v>
@@ -3417,19 +3417,19 @@
         <v>316327</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>292956</v>
+        <v>288917</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>342883</v>
+        <v>341425</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4756328007434366</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4404911617738825</v>
+        <v>0.4344182226390322</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5155630121943395</v>
+        <v>0.5133701903886758</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>186938</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>167855</v>
+        <v>169799</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>203750</v>
+        <v>205451</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5768872032070004</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5179988816111013</v>
+        <v>0.5239952064731401</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6287696929276274</v>
+        <v>0.6340173298443443</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>152</v>
@@ -3467,19 +3467,19 @@
         <v>161801</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>142908</v>
+        <v>144015</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>180142</v>
+        <v>180523</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.474461337917711</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4190614521954362</v>
+        <v>0.4223066789366172</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5282452289047265</v>
+        <v>0.529362062446103</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>338</v>
@@ -3488,19 +3488,19 @@
         <v>348739</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>322183</v>
+        <v>323641</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>372110</v>
+        <v>376149</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5243671992565634</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4844369878056604</v>
+        <v>0.4866298096113245</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5595088382261175</v>
+        <v>0.5655817773609682</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>140169</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>120034</v>
+        <v>119508</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>159837</v>
+        <v>160694</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3748018837590774</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.320962949201395</v>
+        <v>0.3195550581415101</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4273928150809153</v>
+        <v>0.4296847331172124</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>192</v>
@@ -3613,19 +3613,19 @@
         <v>197115</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>176666</v>
+        <v>175693</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>218438</v>
+        <v>217115</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5067858093914392</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.454210660713007</v>
+        <v>0.4517102761736014</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5616078681785707</v>
+        <v>0.5582065546902917</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>318</v>
@@ -3634,19 +3634,19 @@
         <v>337284</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>311800</v>
+        <v>305710</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>368148</v>
+        <v>364722</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4420886204182073</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4086859709472286</v>
+        <v>0.4007041608148477</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4825434272834492</v>
+        <v>0.4780527061496828</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>233813</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>214145</v>
+        <v>213288</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>253948</v>
+        <v>254474</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6251981162409226</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5726071849190848</v>
+        <v>0.5703152668827877</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6790370507986051</v>
+        <v>0.68044494185849</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>179</v>
@@ -3684,19 +3684,19 @@
         <v>191836</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>170513</v>
+        <v>171836</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>212285</v>
+        <v>213258</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4932141906085608</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4383921318214293</v>
+        <v>0.4417934453097083</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5457893392869927</v>
+        <v>0.548289723826398</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>397</v>
@@ -3705,19 +3705,19 @@
         <v>425649</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>394785</v>
+        <v>398211</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>451133</v>
+        <v>457223</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5579113795817927</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5174565727165509</v>
+        <v>0.5219472938503171</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5913140290527714</v>
+        <v>0.5992958391851523</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>94595</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79898</v>
+        <v>79749</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>111733</v>
+        <v>109266</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4449067463030063</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3757834025361366</v>
+        <v>0.3750821108253538</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5255085435729051</v>
+        <v>0.5139064141204882</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>123</v>
@@ -3830,19 +3830,19 @@
         <v>127974</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>113475</v>
+        <v>111370</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>142824</v>
+        <v>141384</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5827842647418596</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5167575105113368</v>
+        <v>0.507170193263525</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.650408666374685</v>
+        <v>0.6438508604724691</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>211</v>
@@ -3851,19 +3851,19 @@
         <v>222569</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>202101</v>
+        <v>201769</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>245154</v>
+        <v>243746</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5149577156116004</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4676007430447977</v>
+        <v>0.4668321824177104</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5672120939324933</v>
+        <v>0.563953179328189</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>118023</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>100885</v>
+        <v>103352</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>132720</v>
+        <v>132869</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5550932536969937</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4744914564270949</v>
+        <v>0.486093585879512</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6242165974638634</v>
+        <v>0.6249178891746469</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>89</v>
@@ -3901,19 +3901,19 @@
         <v>91617</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>76767</v>
+        <v>78207</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>106116</v>
+        <v>108221</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4172157352581403</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.349591333625315</v>
+        <v>0.3561491395275311</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4832424894886631</v>
+        <v>0.4928298067364751</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>197</v>
@@ -3922,19 +3922,19 @@
         <v>209640</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>187055</v>
+        <v>188463</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>230108</v>
+        <v>230440</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4850422843883995</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4327879060675067</v>
+        <v>0.4360468206718111</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5323992569552023</v>
+        <v>0.5331678175822899</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>129692</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>113409</v>
+        <v>112592</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>146796</v>
+        <v>145952</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4733620915058626</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4139292571303098</v>
+        <v>0.41094915585643</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5357901538937916</v>
+        <v>0.5327091064055645</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>149</v>
@@ -4047,19 +4047,19 @@
         <v>156021</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>139591</v>
+        <v>141593</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>172418</v>
+        <v>174645</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5571574247057275</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4984840416640748</v>
+        <v>0.5056322821152803</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.615709294642248</v>
+        <v>0.6236625359692399</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>272</v>
@@ -4068,19 +4068,19 @@
         <v>285714</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>262416</v>
+        <v>263808</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>310631</v>
+        <v>310371</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5157172944993672</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4736644421608831</v>
+        <v>0.4761769142599225</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.560693023901416</v>
+        <v>0.5602245263995326</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>144289</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>127185</v>
+        <v>128029</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>160572</v>
+        <v>161389</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5266379084941374</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4642098461062084</v>
+        <v>0.4672908935944355</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5860707428696902</v>
+        <v>0.58905084414357</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>120</v>
@@ -4118,19 +4118,19 @@
         <v>124010</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>107613</v>
+        <v>105386</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>140440</v>
+        <v>138438</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4428425752942726</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.384290705357752</v>
+        <v>0.3763374640307601</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.501515958335925</v>
+        <v>0.4943677178847196</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>258</v>
@@ -4139,19 +4139,19 @@
         <v>268298</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>243381</v>
+        <v>243641</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>291596</v>
+        <v>290204</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4842827055006328</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.439306976098584</v>
+        <v>0.4397754736004675</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5263355578391169</v>
+        <v>0.5238230857400775</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>276810</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>252163</v>
+        <v>250578</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>303528</v>
+        <v>304691</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4176442405748271</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3804585409828477</v>
+        <v>0.3780658970642317</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.457956626720614</v>
+        <v>0.4597117006197343</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>335</v>
@@ -4264,19 +4264,19 @@
         <v>367879</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>341236</v>
+        <v>337604</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>394486</v>
+        <v>394002</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5301968772010754</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4917986103068099</v>
+        <v>0.486564307167902</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5685444256593071</v>
+        <v>0.567846443400203</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>586</v>
@@ -4285,19 +4285,19 @@
         <v>644688</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>604931</v>
+        <v>604549</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>682608</v>
+        <v>680112</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4752091974880711</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4459036219472157</v>
+        <v>0.445621668711282</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5031607450884569</v>
+        <v>0.5013208515441783</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>385978</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>359260</v>
+        <v>358097</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>410625</v>
+        <v>412210</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5823557594251729</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5420433732793857</v>
+        <v>0.5402882993802657</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6195414590171521</v>
+        <v>0.6219341029357683</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>301</v>
@@ -4335,19 +4335,19 @@
         <v>325974</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>299367</v>
+        <v>299851</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>352617</v>
+        <v>356249</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4698031227989245</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.431455574340693</v>
+        <v>0.4321535565997972</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5082013896931902</v>
+        <v>0.5134356928320982</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>668</v>
@@ -4356,19 +4356,19 @@
         <v>711953</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>674033</v>
+        <v>676529</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>751710</v>
+        <v>752092</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5247908025119289</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.496839254911543</v>
+        <v>0.4986791484558216</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5540963780527842</v>
+        <v>0.5543783312887181</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>324107</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>296826</v>
+        <v>294267</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>352671</v>
+        <v>351463</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4160028901149804</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3809871203637319</v>
+        <v>0.3777022151276483</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4526655311100081</v>
+        <v>0.4511147243102561</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>372</v>
@@ -4481,19 +4481,19 @@
         <v>409600</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>378648</v>
+        <v>380451</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>435989</v>
+        <v>439029</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4971760988385399</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4596060138250979</v>
+        <v>0.4617946506226637</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5292073933639304</v>
+        <v>0.5328977096459991</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>663</v>
@@ -4502,19 +4502,19 @@
         <v>733707</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>694201</v>
+        <v>690331</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>776764</v>
+        <v>773915</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4577226808858592</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4330765688330971</v>
+        <v>0.4306624297364541</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4845838438670506</v>
+        <v>0.4828065144520394</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>454991</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>426427</v>
+        <v>427635</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>482272</v>
+        <v>484831</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5839971098850196</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5473344688899918</v>
+        <v>0.548885275689744</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6190128796362681</v>
+        <v>0.6222977848723517</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>385</v>
@@ -4552,19 +4552,19 @@
         <v>414253</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>387864</v>
+        <v>384824</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>445205</v>
+        <v>443402</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5028239011614601</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4707926066360696</v>
+        <v>0.4671022903540009</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5403939861749021</v>
+        <v>0.5382053493773362</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>811</v>
@@ -4573,19 +4573,19 @@
         <v>869244</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>826187</v>
+        <v>829036</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>908750</v>
+        <v>912620</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5422773191141408</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5154161561329494</v>
+        <v>0.5171934855479606</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5669234311669029</v>
+        <v>0.5693375702635459</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>1507432</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1445232</v>
+        <v>1448023</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1568969</v>
+        <v>1569492</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4398976793016143</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4217463439527973</v>
+        <v>0.4225608841561045</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4578554008318809</v>
+        <v>0.458007807657544</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1780</v>
@@ -4698,19 +4698,19 @@
         <v>1931754</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1865313</v>
+        <v>1866993</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1989355</v>
+        <v>1992996</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5428854018060206</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.524213308600714</v>
+        <v>0.5246853913671619</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5590731126531147</v>
+        <v>0.5600963739409184</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3167</v>
@@ -4719,19 +4719,19 @@
         <v>3439186</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3354090</v>
+        <v>3352619</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3530737</v>
+        <v>3522678</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4923611774970886</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4801786269210465</v>
+        <v>0.4799680084678725</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5054677359646127</v>
+        <v>0.504313992766655</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>1919347</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1857810</v>
+        <v>1857287</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1981547</v>
+        <v>1978756</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5601023206983856</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5421445991681192</v>
+        <v>0.5419921923424561</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5782536560472027</v>
+        <v>0.5774391158438954</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1518</v>
@@ -4769,19 +4769,19 @@
         <v>1626555</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1568954</v>
+        <v>1565313</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1692996</v>
+        <v>1691316</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4571145981939794</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4409268873468855</v>
+        <v>0.4399036260590817</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.475786691399286</v>
+        <v>0.4753146086328383</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3340</v>
@@ -4790,19 +4790,19 @@
         <v>3545902</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3454351</v>
+        <v>3462410</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3630998</v>
+        <v>3632469</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5076388225029114</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4945322640353871</v>
+        <v>0.4956860072333449</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5198213730789534</v>
+        <v>0.5200319915321275</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>134030</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>116327</v>
+        <v>117400</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>151435</v>
+        <v>154109</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4562562748024081</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3959910221028087</v>
+        <v>0.399643836277824</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5155031109873667</v>
+        <v>0.5246081287213407</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>147</v>
@@ -5159,19 +5159,19 @@
         <v>156716</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>138197</v>
+        <v>138799</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>172960</v>
+        <v>173223</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.542827554127858</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4786833190724529</v>
+        <v>0.4807663580200886</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5990944420149764</v>
+        <v>0.6000054971400443</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>269</v>
@@ -5180,19 +5180,19 @@
         <v>290746</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>265505</v>
+        <v>266337</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>314877</v>
+        <v>313450</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4991660306211219</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4558306218914744</v>
+        <v>0.4572592126335833</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.540594825732272</v>
+        <v>0.5381453976354731</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>159731</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>142326</v>
+        <v>139652</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>177434</v>
+        <v>176361</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.543743725197592</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4844968890126338</v>
+        <v>0.4753918712786595</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6040089778971918</v>
+        <v>0.6003561637221767</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>130</v>
@@ -5230,19 +5230,19 @@
         <v>131987</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>115743</v>
+        <v>115480</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>150506</v>
+        <v>149904</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.457172445872142</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4009055579850236</v>
+        <v>0.3999945028599557</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5213166809275472</v>
+        <v>0.5192336419799111</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>274</v>
@@ -5251,19 +5251,19 @@
         <v>291718</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>267587</v>
+        <v>269014</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>316959</v>
+        <v>316127</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5008339693788781</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4594051742677279</v>
+        <v>0.4618546023645269</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5441693781085255</v>
+        <v>0.5427407873664167</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>227189</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>205517</v>
+        <v>204664</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>251028</v>
+        <v>250574</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4520505745494861</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4089270900050526</v>
+        <v>0.4072300051069146</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.499483784277576</v>
+        <v>0.4985812704702127</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>247</v>
@@ -5376,19 +5376,19 @@
         <v>278291</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>255493</v>
+        <v>253541</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>301548</v>
+        <v>297989</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5320188779008913</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4884350506471871</v>
+        <v>0.4847040141333055</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5764802489700575</v>
+        <v>0.5696766309701248</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>460</v>
@@ -5397,19 +5397,19 @@
         <v>505480</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>471096</v>
+        <v>471746</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>539934</v>
+        <v>539733</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4928342319300941</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4593101455964487</v>
+        <v>0.4599447731018894</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5264262478811673</v>
+        <v>0.5262302152670294</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>275386</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>251547</v>
+        <v>252001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>297058</v>
+        <v>297911</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5479494254505139</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.500516215722424</v>
+        <v>0.5014187295297872</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5910729099949474</v>
+        <v>0.5927699948930854</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>237</v>
@@ -5447,19 +5447,19 @@
         <v>244793</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>221536</v>
+        <v>225095</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>267591</v>
+        <v>269543</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4679811220991087</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4235197510299426</v>
+        <v>0.4303233690298753</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5115649493528129</v>
+        <v>0.5152959858666945</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>499</v>
@@ -5468,19 +5468,19 @@
         <v>520179</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>485725</v>
+        <v>485926</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>554563</v>
+        <v>553913</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5071657680699059</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4735737521188323</v>
+        <v>0.4737697847329706</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.540689854403551</v>
+        <v>0.5400552268981105</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>96109</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80534</v>
+        <v>81350</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>111828</v>
+        <v>113047</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3016936967407916</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2528019640489993</v>
+        <v>0.2553643109125202</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3510368102049098</v>
+        <v>0.3548629945096057</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>103</v>
@@ -5593,19 +5593,19 @@
         <v>113264</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>95959</v>
+        <v>95108</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>131155</v>
+        <v>130549</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.336784253159488</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2853311755191572</v>
+        <v>0.2828006000863833</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3899837702641795</v>
+        <v>0.3881829071304377</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>207</v>
@@ -5614,19 +5614,19 @@
         <v>209373</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>187724</v>
+        <v>189151</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>235398</v>
+        <v>231109</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3197143694440833</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2866560384719137</v>
+        <v>0.2888362767126268</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3594558112209316</v>
+        <v>0.3529059910578285</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>222456</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>206737</v>
+        <v>205518</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>238031</v>
+        <v>237215</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6983063032592084</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6489631897950902</v>
+        <v>0.6451370054903942</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7471980359510006</v>
+        <v>0.7446356890874793</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>229</v>
@@ -5664,19 +5664,19 @@
         <v>223045</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>205154</v>
+        <v>205760</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>240350</v>
+        <v>241201</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.663215746840512</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6100162297358205</v>
+        <v>0.6118170928695621</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7146688244808428</v>
+        <v>0.7171993999136166</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>460</v>
@@ -5685,19 +5685,19 @@
         <v>445501</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>419476</v>
+        <v>423765</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>467150</v>
+        <v>465723</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6802856305559167</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6405441887790683</v>
+        <v>0.6470940089421715</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7133439615280862</v>
+        <v>0.7111637232873732</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>206637</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>186605</v>
+        <v>187145</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>224725</v>
+        <v>227072</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5585339690101097</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5043878222602002</v>
+        <v>0.5058453129848645</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6074247833606476</v>
+        <v>0.6137666618326362</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>223</v>
@@ -5810,19 +5810,19 @@
         <v>247242</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>226582</v>
+        <v>227835</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>264150</v>
+        <v>268161</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6384003891014627</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5850545119795633</v>
+        <v>0.5882896167968573</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6820605324441396</v>
+        <v>0.6924152106166461</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>423</v>
@@ -5831,19 +5831,19 @@
         <v>453879</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>423960</v>
+        <v>424999</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>479662</v>
+        <v>479390</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5993804918482771</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5598707996743779</v>
+        <v>0.5612421854572028</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6334289580039077</v>
+        <v>0.63306959878173</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>163327</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>145239</v>
+        <v>142892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>183359</v>
+        <v>182819</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4414660309898904</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3925752166393521</v>
+        <v>0.3862333381673638</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4956121777397997</v>
+        <v>0.4941546870151353</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>135</v>
@@ -5881,19 +5881,19 @@
         <v>140041</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>123133</v>
+        <v>119122</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>160701</v>
+        <v>159448</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3615996108985373</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3179394675558605</v>
+        <v>0.3075847893833538</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4149454880204367</v>
+        <v>0.4117103832031427</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>289</v>
@@ -5902,19 +5902,19 @@
         <v>303368</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>277585</v>
+        <v>277857</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>333287</v>
+        <v>332248</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4006195081517229</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3665710419960924</v>
+        <v>0.3669304012182701</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4401292003256222</v>
+        <v>0.4387578145427971</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>65605</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51911</v>
+        <v>52863</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>79691</v>
+        <v>80484</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3106010448632431</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.24576814546472</v>
+        <v>0.2502711296940613</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3772863170096843</v>
+        <v>0.381042269560859</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>82</v>
@@ -6027,19 +6027,19 @@
         <v>85760</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71771</v>
+        <v>72494</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>101229</v>
+        <v>101033</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3923392208403218</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3283418380653843</v>
+        <v>0.3316486573839651</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4631062076581213</v>
+        <v>0.4622110977413778</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>149</v>
@@ -6048,19 +6048,19 @@
         <v>151366</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>131560</v>
+        <v>133169</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>170321</v>
+        <v>172910</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3521705427429557</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3060901974845695</v>
+        <v>0.3098344793999908</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3962715293889918</v>
+        <v>0.4022955041509132</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>145616</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>131530</v>
+        <v>130737</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>159310</v>
+        <v>158358</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.689398955136757</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6227136829903157</v>
+        <v>0.618957730439141</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.75423185453528</v>
+        <v>0.7497288703059388</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>141</v>
@@ -6098,19 +6098,19 @@
         <v>132827</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>117358</v>
+        <v>117554</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>146816</v>
+        <v>146093</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6076607791596782</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5368937923418802</v>
+        <v>0.5377889022586221</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6716581619346177</v>
+        <v>0.6683513426160345</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>286</v>
@@ -6119,19 +6119,19 @@
         <v>278442</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>259487</v>
+        <v>256898</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>298248</v>
+        <v>296639</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6478294572570443</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6037284706110082</v>
+        <v>0.5977044958490867</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6939098025154306</v>
+        <v>0.690165520600009</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>92005</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>77242</v>
+        <v>77450</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>108429</v>
+        <v>108163</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3496642658359149</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2935584646549678</v>
+        <v>0.2943475577404404</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4120855494618865</v>
+        <v>0.411074047118353</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>113</v>
@@ -6244,19 +6244,19 @@
         <v>124033</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>108307</v>
+        <v>107409</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>139688</v>
+        <v>142103</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4541426512811801</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3965616618082707</v>
+        <v>0.3932721165238673</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5114617909431129</v>
+        <v>0.5203041958723145</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>206</v>
@@ -6265,19 +6265,19 @@
         <v>216038</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>193145</v>
+        <v>194134</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>237838</v>
+        <v>239073</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4028768585779268</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3601844383549536</v>
+        <v>0.3620288015534321</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4435311592531069</v>
+        <v>0.4458338402512992</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>171118</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>154694</v>
+        <v>154960</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>185881</v>
+        <v>185673</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6503357341640852</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5879144505381134</v>
+        <v>0.5889259528816475</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7064415353450323</v>
+        <v>0.7056524422595599</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>150</v>
@@ -6315,19 +6315,19 @@
         <v>149082</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>133427</v>
+        <v>131012</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>164808</v>
+        <v>165706</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.54585734871882</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.488538209056887</v>
+        <v>0.4796958041276855</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6034383381917293</v>
+        <v>0.6067278834761327</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>316</v>
@@ -6336,19 +6336,19 @@
         <v>320200</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>298400</v>
+        <v>297165</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>343093</v>
+        <v>342104</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5971231414220732</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5564688407468933</v>
+        <v>0.554166159748701</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6398155616450464</v>
+        <v>0.6379711984465681</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>252194</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>228146</v>
+        <v>227349</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>277103</v>
+        <v>280007</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3841152561449948</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3474886716909029</v>
+        <v>0.3462734439760277</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4220545923361914</v>
+        <v>0.4264769365143486</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>302</v>
@@ -6461,19 +6461,19 @@
         <v>339764</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>313891</v>
+        <v>310678</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>367190</v>
+        <v>366789</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4914902052190604</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4540626090879379</v>
+        <v>0.4494144429500493</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5311639377591608</v>
+        <v>0.5305826947546126</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>528</v>
@@ -6482,19 +6482,19 @@
         <v>591958</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>552903</v>
+        <v>553051</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>633648</v>
+        <v>630406</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4391863308854513</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4102107277760677</v>
+        <v>0.4103202840400117</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4701167135921366</v>
+        <v>0.4677114385370902</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>404364</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>379455</v>
+        <v>376551</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>428412</v>
+        <v>429209</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6158847438550052</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5779454076638086</v>
+        <v>0.5735230634856515</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6525113283090973</v>
+        <v>0.6537265560239723</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>344</v>
@@ -6532,19 +6532,19 @@
         <v>351530</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>324104</v>
+        <v>324505</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>377403</v>
+        <v>380616</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5085097947809396</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4688360622408391</v>
+        <v>0.4694173052453873</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5459373909120619</v>
+        <v>0.5505855570499506</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>698</v>
@@ -6553,19 +6553,19 @@
         <v>755894</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>714204</v>
+        <v>717446</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>794949</v>
+        <v>794801</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5608136691145488</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5298832864078634</v>
+        <v>0.5322885614629096</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5897892722239324</v>
+        <v>0.5896797159599878</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>248243</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>221444</v>
+        <v>224171</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>274462</v>
+        <v>274897</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3188394474719916</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2844187610229728</v>
+        <v>0.2879212834936785</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3525142160898609</v>
+        <v>0.3530737227189896</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>304</v>
@@ -6678,19 +6678,19 @@
         <v>350192</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>321106</v>
+        <v>320981</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>377469</v>
+        <v>381292</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4238761384978473</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3886694786136667</v>
+        <v>0.3885178940588098</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4568923221443256</v>
+        <v>0.4615189134647885</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>547</v>
@@ -6699,19 +6699,19 @@
         <v>598435</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>561049</v>
+        <v>557942</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>638056</v>
+        <v>637531</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3729150655992617</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3496174546971009</v>
+        <v>0.3476814213789709</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3976047663069919</v>
+        <v>0.3972774062648826</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>530340</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>504121</v>
+        <v>503686</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>557139</v>
+        <v>554412</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6811605525280083</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6474857839101397</v>
+        <v>0.6469262772810104</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7155812389770275</v>
+        <v>0.7120787165063216</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>451</v>
@@ -6749,19 +6749,19 @@
         <v>475975</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>448698</v>
+        <v>444875</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>505061</v>
+        <v>505186</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5761238615021527</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5431076778556744</v>
+        <v>0.5384810865352115</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6113305213863334</v>
+        <v>0.6114821059411899</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>958</v>
@@ -6770,19 +6770,19 @@
         <v>1006315</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>966694</v>
+        <v>967219</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1043701</v>
+        <v>1046808</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6270849344007383</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6023952336930081</v>
+        <v>0.6027225937351174</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6503825453028991</v>
+        <v>0.652318578621029</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>1322013</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1268098</v>
+        <v>1255147</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1386257</v>
+        <v>1378417</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3894746405798993</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3735907349036597</v>
+        <v>0.3697753228084997</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4084013041644168</v>
+        <v>0.406091569091004</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1521</v>
@@ -6895,19 +6895,19 @@
         <v>1695262</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1633430</v>
+        <v>1635818</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1762345</v>
+        <v>1761865</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.478273873143024</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.460829771090308</v>
+        <v>0.4615034713348286</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4971996481003389</v>
+        <v>0.4970641357587558</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2789</v>
@@ -6916,19 +6916,19 @@
         <v>3017275</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2920616</v>
+        <v>2931046</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3094046</v>
+        <v>3095063</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4348352822758739</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4209052520940043</v>
+        <v>0.4224083274331116</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4458991768283715</v>
+        <v>0.4460456948658646</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2072337</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2008093</v>
+        <v>2015933</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2126252</v>
+        <v>2139203</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6105253594201008</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5915986958355831</v>
+        <v>0.5939084309089959</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6264092650963403</v>
+        <v>0.6302246771915002</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1817</v>
@@ -6966,19 +6966,19 @@
         <v>1849280</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1782197</v>
+        <v>1782677</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1911112</v>
+        <v>1908724</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5217261268569759</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5028003518996611</v>
+        <v>0.5029358642412443</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5391702289096919</v>
+        <v>0.5384965286651715</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3780</v>
@@ -6987,19 +6987,19 @@
         <v>3921617</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3844846</v>
+        <v>3843829</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4018276</v>
+        <v>4007846</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5651647177241261</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5541008231716285</v>
+        <v>0.5539543051341353</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5790947479059956</v>
+        <v>0.5775916725668884</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>201403</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>182427</v>
+        <v>183456</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>218684</v>
+        <v>221685</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6316636850401816</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.572149072514808</v>
+        <v>0.575376943741293</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6858619701703654</v>
+        <v>0.6952763220583038</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>435</v>
@@ -7356,19 +7356,19 @@
         <v>249100</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>234098</v>
+        <v>234003</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>260473</v>
+        <v>261385</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7881399933847023</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7406729705772988</v>
+        <v>0.7403737404313796</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8241237485844182</v>
+        <v>0.8270088062629709</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>663</v>
@@ -7377,19 +7377,19 @@
         <v>450503</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>428106</v>
+        <v>425749</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>472282</v>
+        <v>471858</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7095586939711891</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6742832772312709</v>
+        <v>0.670570494528069</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7438608757030204</v>
+        <v>0.7431933582930513</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>117442</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>100161</v>
+        <v>97160</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>136418</v>
+        <v>135389</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3683363149598184</v>
+        <v>0.3683363149598186</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3141380298296343</v>
+        <v>0.304723677941696</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.427850927485192</v>
+        <v>0.424623056258707</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>103</v>
@@ -7427,19 +7427,19 @@
         <v>66961</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55588</v>
+        <v>54676</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81963</v>
+        <v>82058</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2118600066152977</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1758762514155819</v>
+        <v>0.172991193737029</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2593270294227012</v>
+        <v>0.2596262595686204</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>206</v>
@@ -7448,19 +7448,19 @@
         <v>184403</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>162624</v>
+        <v>163048</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>206800</v>
+        <v>209157</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.290441306028811</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2561391242969797</v>
+        <v>0.2568066417069487</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3257167227687291</v>
+        <v>0.3294295054719312</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>238211</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>210602</v>
+        <v>210066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>266050</v>
+        <v>268077</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4497453549851338</v>
+        <v>0.4497453549851337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3976193731148324</v>
+        <v>0.3966074678990814</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5023054822662683</v>
+        <v>0.5061331265051793</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>432</v>
@@ -7573,19 +7573,19 @@
         <v>301924</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>278240</v>
+        <v>280846</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>323490</v>
+        <v>323549</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5539558107605425</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5105014275792875</v>
+        <v>0.5152843532280333</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5935255253571233</v>
+        <v>0.5936331112634126</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>635</v>
@@ -7594,19 +7594,19 @@
         <v>540134</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>508849</v>
+        <v>503515</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>575037</v>
+        <v>575668</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5025959706994685</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4734851667062831</v>
+        <v>0.4685216077484813</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5350727687341679</v>
+        <v>0.535660022097759</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>291447</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>263608</v>
+        <v>261581</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>319056</v>
+        <v>319592</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5502546450148663</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4976945177337317</v>
+        <v>0.4938668734948207</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6023806268851677</v>
+        <v>0.6033925321009185</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>283</v>
@@ -7644,19 +7644,19 @@
         <v>243108</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>221542</v>
+        <v>221483</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>266792</v>
+        <v>264186</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4460441892394575</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4064744746428764</v>
+        <v>0.4063668887365871</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4894985724207124</v>
+        <v>0.4847156467719665</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>461</v>
@@ -7665,19 +7665,19 @@
         <v>534555</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>499652</v>
+        <v>499021</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>565840</v>
+        <v>571174</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4974040293005315</v>
+        <v>0.4974040293005313</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4649272312658322</v>
+        <v>0.4643399779022409</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5265148332937167</v>
+        <v>0.5314783922515187</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>165679</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>146999</v>
+        <v>147766</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>180284</v>
+        <v>183148</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5275223313811009</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4680446961378984</v>
+        <v>0.4704855423945373</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5740238239403177</v>
+        <v>0.5831424797606032</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>314</v>
@@ -7790,19 +7790,19 @@
         <v>182010</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>167006</v>
+        <v>165959</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>197502</v>
+        <v>198821</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.5179315589920916</v>
+        <v>0.5179315589920918</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4752360006972227</v>
+        <v>0.4722553163499841</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5620139931515108</v>
+        <v>0.565769011128984</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>529</v>
@@ -7811,19 +7811,19 @@
         <v>347690</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>324206</v>
+        <v>325521</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>371995</v>
+        <v>371645</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5224578312451162</v>
+        <v>0.5224578312451164</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4871693903967497</v>
+        <v>0.4891452078122984</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5589790717185716</v>
+        <v>0.5584529699529703</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>148392</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>133787</v>
+        <v>130923</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>167072</v>
+        <v>166305</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4724776686188991</v>
+        <v>0.4724776686188989</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4259761760596822</v>
+        <v>0.4168575202393968</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5319553038621018</v>
+        <v>0.5295144576054627</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>215</v>
@@ -7861,19 +7861,19 @@
         <v>169408</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>153916</v>
+        <v>152597</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>184412</v>
+        <v>185459</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.4820684410079084</v>
+        <v>0.4820684410079083</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4379860068484891</v>
+        <v>0.4342309888710158</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5247639993027773</v>
+        <v>0.5277446836500158</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>358</v>
@@ -7882,19 +7882,19 @@
         <v>317800</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>293495</v>
+        <v>293845</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>341284</v>
+        <v>339969</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4775421687548837</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4410209282814281</v>
+        <v>0.4415470300470298</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5128306096032503</v>
+        <v>0.5108547921877017</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>167904</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>144437</v>
+        <v>139945</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>191475</v>
+        <v>192594</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4585780796901909</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3944838155401725</v>
+        <v>0.382215587377865</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5229540105478234</v>
+        <v>0.5260116313950918</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>369</v>
@@ -8007,19 +8007,19 @@
         <v>222985</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>202043</v>
+        <v>202572</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>243552</v>
+        <v>243328</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5354849920624243</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4851955002233437</v>
+        <v>0.4864663241306091</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5848775943530901</v>
+        <v>0.5843392244779068</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>528</v>
@@ -8028,19 +8028,19 @@
         <v>390889</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>359529</v>
+        <v>358528</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>424331</v>
+        <v>422106</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4995019616577014</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4594284358069162</v>
+        <v>0.4581493824850627</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5422367347508008</v>
+        <v>0.5393938886394684</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>198237</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>174666</v>
+        <v>173547</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>221704</v>
+        <v>226196</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5414219203098092</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4770459894521765</v>
+        <v>0.4739883686049081</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6055161844598276</v>
+        <v>0.6177844126221346</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>219</v>
@@ -8078,19 +8078,19 @@
         <v>193431</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>172864</v>
+        <v>173088</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>214373</v>
+        <v>213844</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4645150079375757</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4151224056469099</v>
+        <v>0.4156607755220929</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5148044997766561</v>
+        <v>0.5135336758693907</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>346</v>
@@ -8099,19 +8099,19 @@
         <v>391668</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>358226</v>
+        <v>360451</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>423028</v>
+        <v>424029</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5004980383422984</v>
+        <v>0.5004980383422987</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4577632652491992</v>
+        <v>0.4606061113605315</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5405715641930837</v>
+        <v>0.5418506175149369</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>82459</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>71248</v>
+        <v>70556</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94931</v>
+        <v>95151</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4019040577942249</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3472594694414256</v>
+        <v>0.3438893102932224</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4626894054636979</v>
+        <v>0.4637603373435543</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>268</v>
@@ -8224,19 +8224,19 @@
         <v>115290</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103976</v>
+        <v>103762</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>126061</v>
+        <v>125191</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5120885137998411</v>
+        <v>0.5120885137998412</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4618328163510307</v>
+        <v>0.460882379188185</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5599319659202513</v>
+        <v>0.5560649073046644</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>392</v>
@@ -8245,19 +8245,19 @@
         <v>197750</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>182537</v>
+        <v>181994</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>214495</v>
+        <v>215105</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4595523607736059</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4241993567593472</v>
+        <v>0.4229373752098566</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4984683304905023</v>
+        <v>0.4998856323424481</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>122713</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>110241</v>
+        <v>110021</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>133924</v>
+        <v>134616</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.598095942205775</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5373105945363021</v>
+        <v>0.5362396626564455</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6527405305585743</v>
+        <v>0.6561106897067776</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>219</v>
@@ -8295,19 +8295,19 @@
         <v>109847</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>99076</v>
+        <v>99946</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>121161</v>
+        <v>121375</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4879114862001588</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4400680340797488</v>
+        <v>0.4439350926953354</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5381671836489694</v>
+        <v>0.5391176208118149</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>373</v>
@@ -8316,19 +8316,19 @@
         <v>232559</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>215814</v>
+        <v>215204</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>247772</v>
+        <v>248315</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.540447639226394</v>
+        <v>0.5404476392263942</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5015316695094976</v>
+        <v>0.5001143676575519</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5758006432406528</v>
+        <v>0.5770626247901434</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>147551</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>133024</v>
+        <v>133033</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>162553</v>
+        <v>162441</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5460189623036157</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4922611814886584</v>
+        <v>0.4922961865715996</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6015352971815646</v>
+        <v>0.6011228395008401</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>331</v>
@@ -8441,19 +8441,19 @@
         <v>164348</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>149965</v>
+        <v>151497</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>176201</v>
+        <v>178333</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.6231207302243142</v>
+        <v>0.6231207302243139</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5685880459183054</v>
+        <v>0.5743956194604758</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6680609614129055</v>
+        <v>0.6761450264211118</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>559</v>
@@ -8462,19 +8462,19 @@
         <v>311899</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>291111</v>
+        <v>290706</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>330762</v>
+        <v>330917</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.584102054375381</v>
+        <v>0.5841020543753811</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5451727255889285</v>
+        <v>0.5444139185062399</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6194275140550543</v>
+        <v>0.6197180741382965</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>122679</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>107677</v>
+        <v>107789</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>137206</v>
+        <v>137197</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4539810376963844</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3984647028184351</v>
+        <v>0.3988771604991598</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5077388185113417</v>
+        <v>0.5077038134283997</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>129</v>
@@ -8512,19 +8512,19 @@
         <v>99402</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>87549</v>
+        <v>85417</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>113785</v>
+        <v>112253</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3768792697756859</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3319390385870945</v>
+        <v>0.323854973578888</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4314119540816946</v>
+        <v>0.4256043805395244</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>271</v>
@@ -8533,19 +8533,19 @@
         <v>222081</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>203218</v>
+        <v>203063</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>242869</v>
+        <v>243274</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.415897945624619</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3805724859449458</v>
+        <v>0.3802819258617034</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4548272744110718</v>
+        <v>0.45558608149376</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>351330</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>319407</v>
+        <v>318376</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>379039</v>
+        <v>383014</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4916325258807355</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4469605626135205</v>
+        <v>0.4455179718779479</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5304058277791607</v>
+        <v>0.5359684192400519</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>540</v>
@@ -8658,19 +8658,19 @@
         <v>399966</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>376350</v>
+        <v>372734</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>426909</v>
+        <v>424696</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5198676438782883</v>
+        <v>0.5198676438782882</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4891720558892391</v>
+        <v>0.4844719293341157</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5548869714760364</v>
+        <v>0.5520111593684545</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>849</v>
@@ -8679,19 +8679,19 @@
         <v>751297</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>708876</v>
+        <v>711509</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>792606</v>
+        <v>795924</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5062708643969218</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4776847399933614</v>
+        <v>0.4794594919559796</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5341072577242839</v>
+        <v>0.5363435725164923</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>363290</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>335581</v>
+        <v>331606</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>395213</v>
+        <v>396244</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5083674741192646</v>
+        <v>0.5083674741192648</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4695941722208395</v>
+        <v>0.464031580759948</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5530394373864795</v>
+        <v>0.5544820281220521</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>416</v>
@@ -8729,19 +8729,19 @@
         <v>369396</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>342453</v>
+        <v>344666</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>393012</v>
+        <v>396628</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.4801323561217116</v>
+        <v>0.4801323561217115</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4451130285239636</v>
+        <v>0.4479888406315455</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5108279441107608</v>
+        <v>0.5155280706658846</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>701</v>
@@ -8750,19 +8750,19 @@
         <v>732685</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>691376</v>
+        <v>688058</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>775106</v>
+        <v>772473</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4937291356030781</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4658927422757159</v>
+        <v>0.4636564274835077</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5223152600066384</v>
+        <v>0.5205405080440206</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>244018</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>218439</v>
+        <v>218060</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>269924</v>
+        <v>269388</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3064145314326752</v>
+        <v>0.3064145314326753</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.274295033103417</v>
+        <v>0.2738194246976829</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3389449839884067</v>
+        <v>0.338272248643422</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>482</v>
@@ -8875,19 +8875,19 @@
         <v>331352</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>304949</v>
+        <v>307860</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>354302</v>
+        <v>354809</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3999661517871377</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3680952294683718</v>
+        <v>0.371609596970922</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4276684319319198</v>
+        <v>0.4282794421994195</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>752</v>
@@ -8896,19 +8896,19 @@
         <v>575370</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>539900</v>
+        <v>538385</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>609990</v>
+        <v>608494</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3541140525506475</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3322836738497402</v>
+        <v>0.3313510883321246</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3754211158421951</v>
+        <v>0.3745003179304889</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>552347</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>526441</v>
+        <v>526977</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>577926</v>
+        <v>578305</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6935854685673247</v>
+        <v>0.6935854685673248</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6610550160115933</v>
+        <v>0.6617277513565778</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7257049668965831</v>
+        <v>0.7261805753023165</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>576</v>
@@ -8946,19 +8946,19 @@
         <v>497099</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>474149</v>
+        <v>473642</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>523502</v>
+        <v>520591</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6000338482128622</v>
+        <v>0.6000338482128623</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5723315680680795</v>
+        <v>0.5717205578005805</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6319047705316272</v>
+        <v>0.6283904030290778</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1066</v>
@@ -8967,19 +8967,19 @@
         <v>1049446</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1014826</v>
+        <v>1016322</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1084916</v>
+        <v>1086431</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6458859474493526</v>
+        <v>0.6458859474493525</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6245788841578049</v>
+        <v>0.6254996820695111</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6677163261502601</v>
+        <v>0.6686489116678753</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>1598557</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1535266</v>
+        <v>1533830</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1663171</v>
+        <v>1665119</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.4547680896157147</v>
+        <v>0.4547680896157148</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4367627928679932</v>
+        <v>0.4363542408794456</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4731500283535194</v>
+        <v>0.4737041806728017</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3171</v>
@@ -9092,19 +9092,19 @@
         <v>1966976</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1912668</v>
+        <v>1914342</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2022664</v>
+        <v>2028430</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5293792450541746</v>
+        <v>0.5293792450541744</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5147631133909514</v>
+        <v>0.5152136935730511</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5443667827508027</v>
+        <v>0.5459186385306525</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4907</v>
@@ -9113,19 +9113,19 @@
         <v>3565533</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3482738</v>
+        <v>3474622</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3649231</v>
+        <v>3651505</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.493108237457962</v>
+        <v>0.4931082374579619</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4816579313400714</v>
+        <v>0.4805354574171734</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5046836766909504</v>
+        <v>0.5049980755412307</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>1916546</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1851932</v>
+        <v>1849984</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1979837</v>
+        <v>1981273</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5452319103842851</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5268499716464805</v>
+        <v>0.5262958193271982</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5632372071320069</v>
+        <v>0.5636457591205546</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2160</v>
@@ -9163,19 +9163,19 @@
         <v>1748651</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1692963</v>
+        <v>1687197</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1802959</v>
+        <v>1801285</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4706207549458254</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4556332172491973</v>
+        <v>0.4540813614693476</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4852368866090488</v>
+        <v>0.4847863064269486</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3782</v>
@@ -9184,19 +9184,19 @@
         <v>3665197</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3581499</v>
+        <v>3579225</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3747992</v>
+        <v>3756108</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.506891762542038</v>
+        <v>0.5068917625420379</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4953163233090496</v>
+        <v>0.4950019244587693</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5183420686599286</v>
+        <v>0.5194645425828266</v>
       </c>
     </row>
     <row r="30">
